--- a/Results/QAMod_Evaluation.xlsx
+++ b/Results/QAMod_Evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Máster\TFM\Methodology\QAMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABD478F-A5E6-48E6-8B42-C0F8B4DCC7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD83BE0-80BA-46A9-89C0-8A5CAB4E0414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -405,15 +405,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,9 +469,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,26 +504,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,26 +539,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -760,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="68" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4097,184 +4054,184 @@
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="8">
-        <f>RANK(C24,$C$24:$AU$24,1)</f>
-        <v>14</v>
+        <f>RANK(C24,$C$24:$AU$24,0)</f>
+        <v>32</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" ref="D25:AU25" si="1">RANK(D24,$C$24:$AU$24,1)</f>
+        <f t="shared" ref="D25:AU25" si="1">RANK(D24,$C$24:$AU$24,0)</f>
         <v>23</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AE25" s="8">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AG25" s="8">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AK25" s="8">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AL25" s="8">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AM25" s="8">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN25" s="8">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO25" s="8">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="AP25" s="8">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AQ25" s="8">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="AR25" s="8">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AS25" s="8">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT25" s="8">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="AU25" s="8">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
@@ -4284,7 +4241,7 @@
       <c r="B26" s="18"/>
       <c r="C26" s="26">
         <f>SUM(C25:K25)</f>
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
@@ -4296,7 +4253,7 @@
       <c r="K26" s="28"/>
       <c r="L26" s="26">
         <f>SUM(L25:T25)</f>
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
@@ -4308,7 +4265,7 @@
       <c r="T26" s="28"/>
       <c r="U26" s="26">
         <f>SUM(U25:AC25)</f>
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="V26" s="27"/>
       <c r="W26" s="27"/>
@@ -4320,7 +4277,7 @@
       <c r="AC26" s="28"/>
       <c r="AD26" s="26">
         <f>SUM(AD25:AL25)</f>
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="AE26" s="27"/>
       <c r="AF26" s="27"/>
@@ -4332,7 +4289,7 @@
       <c r="AL26" s="28"/>
       <c r="AM26" s="26">
         <f>SUM(AM25:AU25)</f>
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="AN26" s="27"/>
       <c r="AO26" s="27"/>
@@ -4349,7 +4306,7 @@
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="26">
-        <f>RANK(C26,$C$26:$AU$26,0)</f>
+        <f>RANK(C26,$C$26:$AU$26,1)</f>
         <v>5</v>
       </c>
       <c r="D27" s="27"/>
@@ -4360,54 +4317,54 @@
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
       <c r="K27" s="28"/>
-      <c r="L27" s="29">
-        <f t="shared" ref="L27" si="2">RANK(L26,$C$26:$AU$26,0)</f>
+      <c r="L27" s="26">
+        <f t="shared" ref="L27" si="2">RANK(L26,$C$26:$AU$26,1)</f>
         <v>3</v>
       </c>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="29">
-        <f t="shared" ref="U27" si="3">RANK(U26,$C$26:$AU$26,0)</f>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="26">
+        <f t="shared" ref="U27" si="3">RANK(U26,$C$26:$AU$26,1)</f>
         <v>3</v>
       </c>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="29">
-        <f t="shared" ref="AD27" si="4">RANK(AD26,$C$26:$AU$26,0)</f>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="26">
+        <f t="shared" ref="AD27" si="4">RANK(AD26,$C$26:$AU$26,1)</f>
         <v>1</v>
       </c>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="29">
-        <f t="shared" ref="AM27" si="5">RANK(AM26,$C$26:$AU$26,0)</f>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
+      <c r="AJ27" s="27"/>
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="26">
+        <f t="shared" ref="AM27" si="5">RANK(AM26,$C$26:$AU$26,1)</f>
         <v>2</v>
       </c>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="31"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="27"/>
+      <c r="AR27" s="27"/>
+      <c r="AS27" s="27"/>
+      <c r="AT27" s="27"/>
+      <c r="AU27" s="28"/>
     </row>
     <row r="28" spans="1:47" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
@@ -4424,76 +4381,76 @@
       <c r="J28" s="21"/>
       <c r="K28" s="22"/>
       <c r="L28" s="8">
-        <f>RANK(L24,$L$24:$AC$24,1)</f>
-        <v>10</v>
+        <f>RANK(L24,$L$24:$AC$24,0)</f>
+        <v>9</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" ref="M28:AC28" si="6">RANK(M24,$L$24:$AC$24,1)</f>
-        <v>8</v>
+        <f t="shared" ref="M28:AC28" si="6">RANK(M24,$L$24:$AC$24,0)</f>
+        <v>11</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AA28" s="8">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AD28" s="20"/>
       <c r="AE28" s="21"/>
@@ -4528,30 +4485,30 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="32">
+      <c r="L29" s="29">
         <f>SUM(L28:T28)</f>
+        <v>83</v>
+      </c>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29">
+        <f>SUM(U28:AC28)</f>
         <v>87</v>
       </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32">
-        <f>SUM(U28:AC28)</f>
-        <v>83</v>
-      </c>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
       <c r="AD29" s="20"/>
       <c r="AE29" s="21"/>
       <c r="AF29" s="21"/>
@@ -4585,30 +4542,30 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="22"/>
-      <c r="L30" s="33">
-        <f>RANK(L29,$L$29:$AC$29,0)</f>
+      <c r="L30" s="30">
+        <f>RANK(L29,$L$29:$AC$29,1)</f>
         <v>1</v>
       </c>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="32">
-        <f>RANK(U29,$L$29:$AC$29,0)</f>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30">
+        <f>RANK(U29,$L$29:$AC$29,1)</f>
         <v>2</v>
       </c>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
       <c r="AD30" s="20"/>
       <c r="AE30" s="21"/>
       <c r="AF30" s="21"/>

--- a/Results/QAMod_Evaluation.xlsx
+++ b/Results/QAMod_Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Máster\TFM\Methodology\QAMod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD83BE0-80BA-46A9-89C0-8A5CAB4E0414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42DE963-3FE7-480D-9D4A-BF234233B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,15 +369,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,13 +378,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -405,10 +399,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U29" sqref="L29:AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,140 +726,140 @@
     <row r="1" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="17" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17" t="s">
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17" t="s">
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
     </row>
     <row r="2" spans="1:47" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="17">
+      <c r="C2" s="27">
         <v>4</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27">
         <v>9</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17">
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27">
         <v>10</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17">
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27">
         <v>4</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17">
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27">
         <v>9</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27">
         <v>10</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17">
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27">
         <v>4</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17">
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27">
         <v>9</v>
       </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17">
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27">
         <v>10</v>
       </c>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27">
         <v>4</v>
       </c>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17">
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27">
         <v>9</v>
       </c>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17">
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27">
         <v>10</v>
       </c>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17">
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27">
         <v>4</v>
       </c>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17">
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27">
         <v>9</v>
       </c>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17">
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27">
         <v>10</v>
       </c>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
     </row>
     <row r="3" spans="1:47" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
@@ -3863,10 +3863,10 @@
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="8">
         <f>AVERAGE(C4:C23)</f>
         <v>0.336501993983984</v>
@@ -4049,10 +4049,10 @@
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="8">
         <f>RANK(C24,$C$24:$AU$24,0)</f>
         <v>32</v>
@@ -4235,151 +4235,151 @@
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="26">
+      <c r="B26" s="22"/>
+      <c r="C26" s="24">
         <f>SUM(C25:K25)</f>
         <v>223</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="26">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="24">
         <f>SUM(L25:T25)</f>
         <v>219</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="26">
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="24">
         <f>SUM(U25:AC25)</f>
         <v>219</v>
       </c>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="26">
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="24">
         <f>SUM(AD25:AL25)</f>
         <v>178</v>
       </c>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="28"/>
-      <c r="AM26" s="26">
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="24">
         <f>SUM(AM25:AU25)</f>
         <v>191</v>
       </c>
-      <c r="AN26" s="27"/>
-      <c r="AO26" s="27"/>
-      <c r="AP26" s="27"/>
-      <c r="AQ26" s="27"/>
-      <c r="AR26" s="27"/>
-      <c r="AS26" s="27"/>
-      <c r="AT26" s="27"/>
-      <c r="AU26" s="28"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="26"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="26">
+      <c r="B27" s="22"/>
+      <c r="C27" s="24">
         <f>RANK(C26,$C$26:$AU$26,1)</f>
         <v>5</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="26">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="24">
         <f t="shared" ref="L27" si="2">RANK(L26,$C$26:$AU$26,1)</f>
         <v>3</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="26">
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="24">
         <f t="shared" ref="U27" si="3">RANK(U26,$C$26:$AU$26,1)</f>
         <v>3</v>
       </c>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="26">
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="24">
         <f t="shared" ref="AD27" si="4">RANK(AD26,$C$26:$AU$26,1)</f>
         <v>1</v>
       </c>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="27"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="28"/>
-      <c r="AM27" s="26">
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="24">
         <f t="shared" ref="AM27" si="5">RANK(AM26,$C$26:$AU$26,1)</f>
         <v>2</v>
       </c>
-      <c r="AN27" s="27"/>
-      <c r="AO27" s="27"/>
-      <c r="AP27" s="27"/>
-      <c r="AQ27" s="27"/>
-      <c r="AR27" s="27"/>
-      <c r="AS27" s="27"/>
-      <c r="AT27" s="27"/>
-      <c r="AU27" s="28"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="26"/>
     </row>
     <row r="28" spans="1:47" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="8">
         <f>RANK(L24,$L$24:$AC$24,0)</f>
         <v>9</v>
@@ -4452,158 +4452,158 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="21"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="21"/>
-      <c r="AQ28" s="21"/>
-      <c r="AR28" s="21"/>
-      <c r="AS28" s="21"/>
-      <c r="AT28" s="21"/>
-      <c r="AU28" s="22"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="18"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="18"/>
+      <c r="AS28" s="18"/>
+      <c r="AT28" s="18"/>
+      <c r="AU28" s="19"/>
     </row>
     <row r="29" spans="1:47" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="29">
+      <c r="B29" s="21"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="23">
         <f>SUM(L28:T28)</f>
         <v>83</v>
       </c>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29">
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23">
         <f>SUM(U28:AC28)</f>
         <v>87</v>
       </c>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="20"/>
-      <c r="AN29" s="21"/>
-      <c r="AO29" s="21"/>
-      <c r="AP29" s="21"/>
-      <c r="AQ29" s="21"/>
-      <c r="AR29" s="21"/>
-      <c r="AS29" s="21"/>
-      <c r="AT29" s="21"/>
-      <c r="AU29" s="22"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="18"/>
+      <c r="AO29" s="18"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="18"/>
+      <c r="AR29" s="18"/>
+      <c r="AS29" s="18"/>
+      <c r="AT29" s="18"/>
+      <c r="AU29" s="19"/>
     </row>
     <row r="30" spans="1:47" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="30">
+      <c r="B30" s="22"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20">
         <f>RANK(L29,$L$29:$AC$29,1)</f>
         <v>1</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30">
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20">
         <f>RANK(U29,$L$29:$AC$29,1)</f>
         <v>2</v>
       </c>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="22"/>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="21"/>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="21"/>
-      <c r="AQ30" s="21"/>
-      <c r="AR30" s="21"/>
-      <c r="AS30" s="21"/>
-      <c r="AT30" s="21"/>
-      <c r="AU30" s="22"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="18"/>
+      <c r="AU30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="AM29:AU29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="AD30:AL30"/>
-    <mergeCell ref="AM30:AU30"/>
-    <mergeCell ref="L30:T30"/>
-    <mergeCell ref="U30:AC30"/>
-    <mergeCell ref="AD29:AL29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="L29:T29"/>
-    <mergeCell ref="U29:AC29"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="AM27:AU27"/>
-    <mergeCell ref="AD27:AL27"/>
-    <mergeCell ref="U27:AC27"/>
-    <mergeCell ref="L27:T27"/>
-    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD1:AL1"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:K28"/>
     <mergeCell ref="AD28:AL28"/>
@@ -4620,23 +4620,23 @@
     <mergeCell ref="AM26:AU26"/>
     <mergeCell ref="U1:AC1"/>
     <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD1:AL1"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="AM27:AU27"/>
+    <mergeCell ref="AD27:AL27"/>
+    <mergeCell ref="U27:AC27"/>
+    <mergeCell ref="L27:T27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="L29:T29"/>
+    <mergeCell ref="U29:AC29"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="AM29:AU29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="AD30:AL30"/>
+    <mergeCell ref="AM30:AU30"/>
+    <mergeCell ref="L30:T30"/>
+    <mergeCell ref="U30:AC30"/>
+    <mergeCell ref="AD29:AL29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
